--- a/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,10 +498,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D2" t="n">
-        <v>1806548</v>
+        <v>1803548</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +546,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5608</v>
+        <v>5592</v>
       </c>
       <c r="D3" t="n">
-        <v>8239266</v>
+        <v>8216581</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +594,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D4" t="n">
-        <v>2957032</v>
+        <v>2955532</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -622,10 +690,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>150444</v>
+        <v>148944</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +786,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D8" t="n">
-        <v>785287</v>
+        <v>776755</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +834,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D9" t="n">
-        <v>1667055</v>
+        <v>1661715</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +882,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3470</v>
+        <v>3462</v>
       </c>
       <c r="D10" t="n">
-        <v>5073487</v>
+        <v>5061899</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +930,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D11" t="n">
-        <v>1330564</v>
+        <v>1329064</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1006,10 +1074,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1841</v>
+        <v>1829</v>
       </c>
       <c r="D14" t="n">
-        <v>2417200</v>
+        <v>2400927</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1122,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2480</v>
+        <v>2469</v>
       </c>
       <c r="D15" t="n">
-        <v>3588529</v>
+        <v>3572429</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1170,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4090</v>
+        <v>4081</v>
       </c>
       <c r="D16" t="n">
-        <v>5977375</v>
+        <v>5964666</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1218,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D17" t="n">
-        <v>1672827</v>
+        <v>1669827</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1342,10 +1410,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D21" t="n">
-        <v>2298699</v>
+        <v>2294199</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1438,10 +1506,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="D23" t="n">
-        <v>2741791</v>
+        <v>2735856</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,10 +1554,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>752738</v>
+        <v>751238</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1678,10 +1746,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="D28" t="n">
-        <v>2708160</v>
+        <v>2701001</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1794,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3095</v>
+        <v>3083</v>
       </c>
       <c r="D29" t="n">
-        <v>4475082</v>
+        <v>4457647</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1842,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6273</v>
+        <v>6257</v>
       </c>
       <c r="D30" t="n">
-        <v>9191801</v>
+        <v>9170381</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1890,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="D31" t="n">
-        <v>2877749</v>
+        <v>2871469</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1938,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D32" t="n">
-        <v>707904</v>
+        <v>704904</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1918,10 +1986,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" t="n">
-        <v>156373</v>
+        <v>153373</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2014,10 +2082,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2435</v>
+        <v>2427</v>
       </c>
       <c r="D35" t="n">
-        <v>3128365</v>
+        <v>3117265</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2062,10 +2130,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D36" t="n">
-        <v>1723274</v>
+        <v>1720634</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2178,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="D37" t="n">
-        <v>3968366</v>
+        <v>3962366</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2226,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D38" t="n">
-        <v>1132817</v>
+        <v>1129817</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2350,10 +2418,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D42" t="n">
-        <v>1771552</v>
+        <v>1771181</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2466,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3839</v>
+        <v>3828</v>
       </c>
       <c r="D43" t="n">
-        <v>5585796</v>
+        <v>5569456</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2514,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8654</v>
+        <v>8633</v>
       </c>
       <c r="D44" t="n">
-        <v>12698467</v>
+        <v>12669119</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2562,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3533</v>
+        <v>3524</v>
       </c>
       <c r="D45" t="n">
-        <v>5229618</v>
+        <v>5216118</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2610,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D46" t="n">
-        <v>1640785</v>
+        <v>1636285</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2658,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D47" t="n">
-        <v>463537</v>
+        <v>457537</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2706,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>44410</v>
+        <v>42910</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2754,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4859</v>
+        <v>4834</v>
       </c>
       <c r="D49" t="n">
-        <v>6654470</v>
+        <v>6619724</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2802,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5682</v>
+        <v>5660</v>
       </c>
       <c r="D50" t="n">
-        <v>8229885</v>
+        <v>8197642</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2850,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13299</v>
+        <v>13263</v>
       </c>
       <c r="D51" t="n">
-        <v>19563507</v>
+        <v>19510116</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2898,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4516</v>
+        <v>4504</v>
       </c>
       <c r="D52" t="n">
-        <v>6695323</v>
+        <v>6677323</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2946,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D53" t="n">
-        <v>1795695</v>
+        <v>1792695</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2994,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D54" t="n">
-        <v>371366</v>
+        <v>369866</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3070,10 +3138,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5492</v>
+        <v>5463</v>
       </c>
       <c r="D57" t="n">
-        <v>7526952</v>
+        <v>7490491</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="D58" t="n">
-        <v>4468456</v>
+        <v>4455792</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3234,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7635</v>
+        <v>7620</v>
       </c>
       <c r="D59" t="n">
-        <v>11202165</v>
+        <v>11179665</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3282,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="D60" t="n">
-        <v>3570580</v>
+        <v>3566080</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3330,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D61" t="n">
-        <v>922201</v>
+        <v>919201</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3378,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" t="n">
-        <v>223717</v>
+        <v>222739</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3406,10 +3474,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3281</v>
+        <v>3271</v>
       </c>
       <c r="D64" t="n">
-        <v>4288486</v>
+        <v>4275715</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3522,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2598</v>
+        <v>2591</v>
       </c>
       <c r="D65" t="n">
-        <v>3736806</v>
+        <v>3726306</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3570,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6874</v>
+        <v>6846</v>
       </c>
       <c r="D66" t="n">
-        <v>10059476</v>
+        <v>10017476</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3618,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2321</v>
+        <v>2314</v>
       </c>
       <c r="D67" t="n">
-        <v>3435853</v>
+        <v>3425353</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3666,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D68" t="n">
-        <v>950198</v>
+        <v>948698</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3646,10 +3714,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D69" t="n">
-        <v>159986</v>
+        <v>158486</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3810,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2920</v>
+        <v>2911</v>
       </c>
       <c r="D71" t="n">
-        <v>3866932</v>
+        <v>3854875</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3858,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8808</v>
+        <v>8776</v>
       </c>
       <c r="D72" t="n">
-        <v>12788242</v>
+        <v>12741784</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3906,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>21851</v>
+        <v>21794</v>
       </c>
       <c r="D73" t="n">
-        <v>32120632</v>
+        <v>32038155</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3954,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7556</v>
+        <v>7528</v>
       </c>
       <c r="D74" t="n">
-        <v>11222782</v>
+        <v>11182247</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +4002,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="D75" t="n">
-        <v>3116743</v>
+        <v>3110743</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +4050,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D76" t="n">
-        <v>621983</v>
+        <v>617483</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4174,10 +4242,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7261</v>
+        <v>7223</v>
       </c>
       <c r="D80" t="n">
-        <v>10000041</v>
+        <v>9948610</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4290,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="D81" t="n">
-        <v>3858195</v>
+        <v>3843903</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4338,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6212</v>
+        <v>6200</v>
       </c>
       <c r="D82" t="n">
-        <v>9106749</v>
+        <v>9090875</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4386,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="D83" t="n">
-        <v>4101965</v>
+        <v>4089965</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4434,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D84" t="n">
-        <v>1456198</v>
+        <v>1451698</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4482,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D85" t="n">
-        <v>423275</v>
+        <v>421775</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4510,10 +4578,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6281</v>
+        <v>6259</v>
       </c>
       <c r="D87" t="n">
-        <v>8837162</v>
+        <v>8809363</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4626,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="D88" t="n">
-        <v>2713553</v>
+        <v>2708625</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4674,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4796</v>
+        <v>4785</v>
       </c>
       <c r="D89" t="n">
-        <v>7047682</v>
+        <v>7031227</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4722,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="D90" t="n">
-        <v>2521099</v>
+        <v>2514950</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4770,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D91" t="n">
-        <v>695009</v>
+        <v>693509</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4818,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D92" t="n">
-        <v>120675</v>
+        <v>119175</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4914,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="D94" t="n">
-        <v>2543535</v>
+        <v>2530491</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4962,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="D95" t="n">
-        <v>2387618</v>
+        <v>2380118</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +5010,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4435</v>
+        <v>4421</v>
       </c>
       <c r="D96" t="n">
-        <v>6511482</v>
+        <v>6491349</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +5058,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="D97" t="n">
-        <v>2253277</v>
+        <v>2247277</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5106,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D98" t="n">
-        <v>654518</v>
+        <v>650018</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5154,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D99" t="n">
-        <v>152399</v>
+        <v>147899</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5230,10 +5298,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="D102" t="n">
-        <v>2040743</v>
+        <v>2034580</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5346,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D103" t="n">
-        <v>983902</v>
+        <v>982402</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5394,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D104" t="n">
-        <v>2528380</v>
+        <v>2523880</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5518,10 +5586,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D108" t="n">
-        <v>1086968</v>
+        <v>1082522</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5634,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D109" t="n">
-        <v>1545306</v>
+        <v>1543806</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5682,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2628</v>
+        <v>2622</v>
       </c>
       <c r="D110" t="n">
-        <v>3852501</v>
+        <v>3843501</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5854,10 +5922,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D115" t="n">
-        <v>1234970</v>
+        <v>1230470</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5970,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D116" t="n">
-        <v>1016748</v>
+        <v>1013748</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +6018,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="D117" t="n">
-        <v>2753450</v>
+        <v>2742950</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +6066,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D118" t="n">
-        <v>870765</v>
+        <v>864765</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6142,10 +6210,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D121" t="n">
-        <v>1125601</v>
+        <v>1123768</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6258,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="D122" t="n">
-        <v>2773308</v>
+        <v>2763118</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6306,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5615</v>
+        <v>5605</v>
       </c>
       <c r="D123" t="n">
-        <v>8230990</v>
+        <v>8217301</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6354,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D124" t="n">
-        <v>2521284</v>
+        <v>2518284</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6430,10 +6498,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="D127" t="n">
-        <v>3184221</v>
+        <v>3181221</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6546,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D128" t="n">
-        <v>579472</v>
+        <v>577896</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6594,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="D129" t="n">
-        <v>1619363</v>
+        <v>1612199</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6642,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D130" t="n">
-        <v>603552</v>
+        <v>602052</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6766,10 +6834,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D134" t="n">
-        <v>1552346</v>
+        <v>1547846</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6882,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3189</v>
+        <v>3183</v>
       </c>
       <c r="D135" t="n">
-        <v>4685226</v>
+        <v>4676226</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6930,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D136" t="n">
-        <v>1364093</v>
+        <v>1358093</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6978,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D137" t="n">
-        <v>382564</v>
+        <v>379564</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7054,10 +7122,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D140" t="n">
-        <v>1452455</v>
+        <v>1446559</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7170,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2589</v>
+        <v>2582</v>
       </c>
       <c r="D141" t="n">
-        <v>3746564</v>
+        <v>3736122</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7218,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5947</v>
+        <v>5932</v>
       </c>
       <c r="D142" t="n">
-        <v>8708636</v>
+        <v>8686828</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7266,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D143" t="n">
-        <v>2448930</v>
+        <v>2447430</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7390,10 +7458,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2315</v>
+        <v>2308</v>
       </c>
       <c r="D147" t="n">
-        <v>3043933</v>
+        <v>3034843</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7506,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3547</v>
+        <v>3532</v>
       </c>
       <c r="D148" t="n">
-        <v>5113430</v>
+        <v>5093340</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7554,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8100</v>
+        <v>8071</v>
       </c>
       <c r="D149" t="n">
-        <v>11860472</v>
+        <v>11822013</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7602,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2834</v>
+        <v>2824</v>
       </c>
       <c r="D150" t="n">
-        <v>4206163</v>
+        <v>4191397</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7650,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D151" t="n">
-        <v>1013826</v>
+        <v>1009326</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7698,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D152" t="n">
-        <v>222008</v>
+        <v>219261</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7726,10 +7794,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3073</v>
+        <v>3065</v>
       </c>
       <c r="D154" t="n">
-        <v>4105917</v>
+        <v>4096301</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7842,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3318</v>
+        <v>3309</v>
       </c>
       <c r="D155" t="n">
-        <v>4809917</v>
+        <v>4797160</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7890,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9276</v>
+        <v>9254</v>
       </c>
       <c r="D156" t="n">
-        <v>13688382</v>
+        <v>13656682</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7938,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3055</v>
+        <v>3048</v>
       </c>
       <c r="D157" t="n">
-        <v>4549105</v>
+        <v>4538605</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7986,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D158" t="n">
-        <v>1345475</v>
+        <v>1343975</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +8034,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D159" t="n">
-        <v>278674</v>
+        <v>277174</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8082,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>13101</v>
+        <v>11601</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8130,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3094</v>
+        <v>3080</v>
       </c>
       <c r="D161" t="n">
-        <v>4179876</v>
+        <v>4162178</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8178,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3636</v>
+        <v>3626</v>
       </c>
       <c r="D162" t="n">
-        <v>5236933</v>
+        <v>5222744</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8226,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7727</v>
+        <v>7715</v>
       </c>
       <c r="D163" t="n">
-        <v>11334300</v>
+        <v>11316300</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8274,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="D164" t="n">
-        <v>3746299</v>
+        <v>3738799</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8398,10 +8466,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2913</v>
+        <v>2900</v>
       </c>
       <c r="D168" t="n">
-        <v>3919340</v>
+        <v>3902351</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8514,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D169" t="n">
-        <v>1185739</v>
+        <v>1179739</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8562,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2472</v>
+        <v>2458</v>
       </c>
       <c r="D170" t="n">
-        <v>3620126</v>
+        <v>3599253</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8610,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D171" t="n">
-        <v>1218681</v>
+        <v>1208181</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8590,10 +8658,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D172" t="n">
-        <v>352500</v>
+        <v>351000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8734,10 +8802,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D175" t="n">
-        <v>1527728</v>
+        <v>1518870</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8850,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D176" t="n">
-        <v>1612481</v>
+        <v>1607981</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8898,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3435</v>
+        <v>3427</v>
       </c>
       <c r="D177" t="n">
-        <v>5063953</v>
+        <v>5052803</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8946,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D178" t="n">
-        <v>1700307</v>
+        <v>1698807</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8994,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D179" t="n">
-        <v>434420</v>
+        <v>431420</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +9042,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D180" t="n">
-        <v>54000</v>
+        <v>49500</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9070,10 +9138,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D182" t="n">
-        <v>1463244</v>
+        <v>1458744</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9166,10 +9234,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D184" t="n">
-        <v>2728030</v>
+        <v>2726257</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9358,10 +9426,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D188" t="n">
-        <v>1046878</v>
+        <v>1038386</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9406,10 +9474,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2142</v>
+        <v>2131</v>
       </c>
       <c r="D189" t="n">
-        <v>3076428</v>
+        <v>3061908</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9522,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5630</v>
+        <v>5610</v>
       </c>
       <c r="D190" t="n">
-        <v>8246840</v>
+        <v>8217116</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9570,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D191" t="n">
-        <v>2917404</v>
+        <v>2914404</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9618,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D192" t="n">
-        <v>780524</v>
+        <v>774524</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9694,10 +9762,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2077</v>
+        <v>2066</v>
       </c>
       <c r="D195" t="n">
-        <v>2792170</v>
+        <v>2779235</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9810,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="D196" t="n">
-        <v>2656184</v>
+        <v>2648683</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9858,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5524</v>
+        <v>5504</v>
       </c>
       <c r="D197" t="n">
-        <v>8127745</v>
+        <v>8097870</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9906,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="D198" t="n">
-        <v>3022403</v>
+        <v>3019112</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9954,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D199" t="n">
-        <v>714375</v>
+        <v>709875</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +10002,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D200" t="n">
-        <v>126000</v>
+        <v>124500</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10030,10 +10098,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1855</v>
+        <v>1844</v>
       </c>
       <c r="D202" t="n">
-        <v>2425957</v>
+        <v>2416744</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10126,10 +10194,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3112</v>
+        <v>3104</v>
       </c>
       <c r="D204" t="n">
-        <v>4575714</v>
+        <v>4563714</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10242,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D205" t="n">
-        <v>1530162</v>
+        <v>1528662</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10270,10 +10338,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D207" t="n">
-        <v>87000</v>
+        <v>84000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10434,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D209" t="n">
-        <v>1468781</v>
+        <v>1464871</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10482,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D210" t="n">
-        <v>1319086</v>
+        <v>1305636</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10530,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3535</v>
+        <v>3523</v>
       </c>
       <c r="D211" t="n">
-        <v>5166979</v>
+        <v>5148979</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10578,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="D212" t="n">
-        <v>2669246</v>
+        <v>2660246</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10674,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D214" t="n">
-        <v>138428</v>
+        <v>136928</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10722,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D215" t="n">
-        <v>948960</v>
+        <v>942366</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10770,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2168</v>
+        <v>2154</v>
       </c>
       <c r="D216" t="n">
-        <v>3136723</v>
+        <v>3115823</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10818,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3950</v>
+        <v>3937</v>
       </c>
       <c r="D217" t="n">
-        <v>5770358</v>
+        <v>5752210</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10866,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D218" t="n">
-        <v>1802042</v>
+        <v>1796042</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10914,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D219" t="n">
-        <v>459414</v>
+        <v>457914</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +11010,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="D221" t="n">
-        <v>2178857</v>
+        <v>2170021</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +11058,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D222" t="n">
-        <v>1027902</v>
+        <v>1024902</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11106,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="D223" t="n">
-        <v>3213993</v>
+        <v>3201993</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11230,10 +11298,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D227" t="n">
-        <v>1192737</v>
+        <v>1190237</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11346,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D228" t="n">
-        <v>1331255</v>
+        <v>1329755</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11394,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="D229" t="n">
-        <v>3781836</v>
+        <v>3770510</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11442,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D230" t="n">
-        <v>1208940</v>
+        <v>1205940</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11490,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D231" t="n">
-        <v>327056</v>
+        <v>325556</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11518,10 +11586,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D233" t="n">
-        <v>1214536</v>
+        <v>1212399</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11634,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3825</v>
+        <v>3809</v>
       </c>
       <c r="D234" t="n">
-        <v>5536506</v>
+        <v>5512648</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11682,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>12051</v>
+        <v>12028</v>
       </c>
       <c r="D235" t="n">
-        <v>17687353</v>
+        <v>17653950</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11730,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4679</v>
+        <v>4670</v>
       </c>
       <c r="D236" t="n">
-        <v>6944515</v>
+        <v>6931192</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11710,10 +11778,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D237" t="n">
-        <v>2121886</v>
+        <v>2119931</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11854,10 +11922,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3313</v>
+        <v>3303</v>
       </c>
       <c r="D240" t="n">
-        <v>4500894</v>
+        <v>4487415</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +12018,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D242" t="n">
-        <v>1973855</v>
+        <v>1972355</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12190,10 +12258,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D247" t="n">
-        <v>739953</v>
+        <v>735698</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12306,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="D248" t="n">
-        <v>3769623</v>
+        <v>3754623</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12354,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7697</v>
+        <v>7679</v>
       </c>
       <c r="D249" t="n">
-        <v>11297013</v>
+        <v>11271139</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12402,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="D250" t="n">
-        <v>4637333</v>
+        <v>4631333</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12450,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D251" t="n">
-        <v>1259072</v>
+        <v>1257572</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12498,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D252" t="n">
-        <v>307230</v>
+        <v>305730</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12622,10 +12690,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="D256" t="n">
-        <v>2632819</v>
+        <v>2626441</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12738,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="D257" t="n">
-        <v>2527975</v>
+        <v>2521975</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12786,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4832</v>
+        <v>4829</v>
       </c>
       <c r="D258" t="n">
-        <v>7113643</v>
+        <v>7109243</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12834,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D259" t="n">
-        <v>2621810</v>
+        <v>2617310</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12882,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D260" t="n">
-        <v>785539</v>
+        <v>784039</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12958,10 +13026,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="D263" t="n">
-        <v>2461698</v>
+        <v>2454992</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13074,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1810</v>
+        <v>1798</v>
       </c>
       <c r="D264" t="n">
-        <v>2649116</v>
+        <v>2631116</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13122,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5448</v>
+        <v>5426</v>
       </c>
       <c r="D265" t="n">
-        <v>8012764</v>
+        <v>7979764</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13170,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="D266" t="n">
-        <v>2811966</v>
+        <v>2801466</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13294,10 +13362,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D270" t="n">
-        <v>2881060</v>
+        <v>2866423</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13410,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D271" t="n">
-        <v>709432</v>
+        <v>706432</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13390,10 +13458,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D272" t="n">
-        <v>2015504</v>
+        <v>2011489</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13506,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D273" t="n">
-        <v>632585</v>
+        <v>631085</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13554,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D274" t="n">
-        <v>178290</v>
+        <v>176790</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13534,10 +13602,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D275" t="n">
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13650,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D276" t="n">
-        <v>764671</v>
+        <v>760791</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13698,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="D277" t="n">
-        <v>3737391</v>
+        <v>3731391</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13746,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8403</v>
+        <v>8388</v>
       </c>
       <c r="D278" t="n">
-        <v>12318697</v>
+        <v>12296197</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13726,10 +13794,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="D279" t="n">
-        <v>5164444</v>
+        <v>5159944</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13774,10 +13842,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D280" t="n">
-        <v>1604659</v>
+        <v>1601659</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13890,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D281" t="n">
-        <v>226656</v>
+        <v>225156</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13986,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="D283" t="n">
-        <v>3120000</v>
+        <v>3114847</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +14034,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D284" t="n">
-        <v>2254018</v>
+        <v>2248018</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14082,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3873</v>
+        <v>3864</v>
       </c>
       <c r="D285" t="n">
-        <v>5689807</v>
+        <v>5677188</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14130,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D286" t="n">
-        <v>1879830</v>
+        <v>1878330</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14178,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D287" t="n">
-        <v>561032</v>
+        <v>559532</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14322,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="D290" t="n">
-        <v>2135106</v>
+        <v>2123382</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14370,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1889</v>
+        <v>1864</v>
       </c>
       <c r="D291" t="n">
-        <v>2740705</v>
+        <v>2705440</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14418,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6511</v>
+        <v>6450</v>
       </c>
       <c r="D292" t="n">
-        <v>9577473</v>
+        <v>9489228</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14466,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2253</v>
+        <v>2232</v>
       </c>
       <c r="D293" t="n">
-        <v>3364690</v>
+        <v>3333324</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14514,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D294" t="n">
-        <v>1096305</v>
+        <v>1084305</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14562,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D295" t="n">
-        <v>253333</v>
+        <v>251833</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14590,10 +14658,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6191</v>
+        <v>6102</v>
       </c>
       <c r="D297" t="n">
-        <v>8521785</v>
+        <v>8408761</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14706,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="D298" t="n">
-        <v>1233743</v>
+        <v>1186584</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14754,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2036</v>
+        <v>2018</v>
       </c>
       <c r="D299" t="n">
-        <v>3021826</v>
+        <v>2994826</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14802,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="D300" t="n">
-        <v>1240337</v>
+        <v>1226145</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14850,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D301" t="n">
-        <v>436258</v>
+        <v>421258</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14898,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D302" t="n">
-        <v>109500</v>
+        <v>103500</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14994,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="D304" t="n">
-        <v>1707230</v>
+        <v>1682894</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +15042,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D305" t="n">
-        <v>1641616</v>
+        <v>1638111</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15090,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3506</v>
+        <v>3497</v>
       </c>
       <c r="D306" t="n">
-        <v>5144591</v>
+        <v>5131091</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15138,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D307" t="n">
-        <v>1945040</v>
+        <v>1942040</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15166,10 +15234,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D309" t="n">
-        <v>74937</v>
+        <v>73437</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15262,10 +15330,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D311" t="n">
-        <v>1852502</v>
+        <v>1849502</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15378,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6803</v>
+        <v>6773</v>
       </c>
       <c r="D312" t="n">
-        <v>9819008</v>
+        <v>9775401</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15426,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>19174</v>
+        <v>19132</v>
       </c>
       <c r="D313" t="n">
-        <v>28069006</v>
+        <v>28008015</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15474,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>6814</v>
+        <v>6801</v>
       </c>
       <c r="D314" t="n">
-        <v>10142959</v>
+        <v>10123459</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15522,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2076</v>
+        <v>2065</v>
       </c>
       <c r="D315" t="n">
-        <v>3098519</v>
+        <v>3082019</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15570,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D316" t="n">
-        <v>659470</v>
+        <v>653470</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15666,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6051</v>
+        <v>6030</v>
       </c>
       <c r="D318" t="n">
-        <v>7973462</v>
+        <v>7950755</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15714,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2039</v>
+        <v>2031</v>
       </c>
       <c r="D319" t="n">
-        <v>2983620</v>
+        <v>2972651</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15762,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6339</v>
+        <v>6325</v>
       </c>
       <c r="D320" t="n">
-        <v>9307397</v>
+        <v>9287527</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15810,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2246</v>
+        <v>2237</v>
       </c>
       <c r="D321" t="n">
-        <v>3343629</v>
+        <v>3330129</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15858,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D322" t="n">
-        <v>893699</v>
+        <v>889199</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15906,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D323" t="n">
-        <v>182974</v>
+        <v>181474</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15934,10 +16002,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="D325" t="n">
-        <v>2641380</v>
+        <v>2628197</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +16050,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3507</v>
+        <v>3498</v>
       </c>
       <c r="D326" t="n">
-        <v>5045575</v>
+        <v>5033930</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16098,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>10593</v>
+        <v>10576</v>
       </c>
       <c r="D327" t="n">
-        <v>15487487</v>
+        <v>15462146</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16146,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3446</v>
+        <v>3442</v>
       </c>
       <c r="D328" t="n">
-        <v>5112665</v>
+        <v>5106665</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16174,10 +16242,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D330" t="n">
-        <v>257215</v>
+        <v>255715</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16318,10 +16386,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3715</v>
+        <v>3699</v>
       </c>
       <c r="D333" t="n">
-        <v>4846259</v>
+        <v>4829025</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,10 +16434,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D334" t="n">
-        <v>2151012</v>
+        <v>2146512</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16482,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4162</v>
+        <v>4149</v>
       </c>
       <c r="D335" t="n">
-        <v>6082295</v>
+        <v>6063320</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16530,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D336" t="n">
-        <v>2331113</v>
+        <v>2326613</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16578,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D337" t="n">
-        <v>585964</v>
+        <v>584464</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16722,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D340" t="n">
-        <v>2133951</v>
+        <v>2130464</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16770,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3499</v>
+        <v>3478</v>
       </c>
       <c r="D341" t="n">
-        <v>5107149</v>
+        <v>5076042</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16818,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>10084</v>
+        <v>10039</v>
       </c>
       <c r="D342" t="n">
-        <v>14881145</v>
+        <v>14816277</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16866,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3903</v>
+        <v>3886</v>
       </c>
       <c r="D343" t="n">
-        <v>5812699</v>
+        <v>5787199</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16914,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D344" t="n">
-        <v>1710679</v>
+        <v>1706179</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16962,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D345" t="n">
-        <v>305801</v>
+        <v>302801</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -17038,10 +17106,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3370</v>
+        <v>3346</v>
       </c>
       <c r="D348" t="n">
-        <v>4681451</v>
+        <v>4648637</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17154,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>6124</v>
+        <v>6096</v>
       </c>
       <c r="D349" t="n">
-        <v>8928606</v>
+        <v>8889348</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17202,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>15068</v>
+        <v>14996</v>
       </c>
       <c r="D350" t="n">
-        <v>22199189</v>
+        <v>22094100</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17250,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>6744</v>
+        <v>6711</v>
       </c>
       <c r="D351" t="n">
-        <v>10059180</v>
+        <v>10009680</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17298,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2037</v>
+        <v>2028</v>
       </c>
       <c r="D352" t="n">
-        <v>3041372</v>
+        <v>3027872</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17346,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D353" t="n">
-        <v>686081</v>
+        <v>674081</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17374,10 +17442,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>5524</v>
+        <v>5479</v>
       </c>
       <c r="D355" t="n">
-        <v>7552512</v>
+        <v>7498048</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17490,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>17936</v>
+        <v>17820</v>
       </c>
       <c r="D356" t="n">
-        <v>26055726</v>
+        <v>25889906</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17538,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>49647</v>
+        <v>49357</v>
       </c>
       <c r="D357" t="n">
-        <v>73204622</v>
+        <v>72777571</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17518,10 +17586,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>23185</v>
+        <v>23053</v>
       </c>
       <c r="D358" t="n">
-        <v>34605651</v>
+        <v>34407821</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17634,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>8297</v>
+        <v>8245</v>
       </c>
       <c r="D359" t="n">
-        <v>12408587</v>
+        <v>12330587</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17682,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="D360" t="n">
-        <v>3022772</v>
+        <v>3001772</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17854,10 +17922,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>17713</v>
+        <v>17592</v>
       </c>
       <c r="D365" t="n">
-        <v>24100983</v>
+        <v>23947501</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17970,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4211</v>
+        <v>4197</v>
       </c>
       <c r="D366" t="n">
-        <v>6130856</v>
+        <v>6111593</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +18018,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>12000</v>
+        <v>11955</v>
       </c>
       <c r="D367" t="n">
-        <v>17652286</v>
+        <v>17585930</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +18066,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>4531</v>
+        <v>4518</v>
       </c>
       <c r="D368" t="n">
-        <v>6726892</v>
+        <v>6708220</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18114,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="D369" t="n">
-        <v>2090275</v>
+        <v>2078336</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18162,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D370" t="n">
-        <v>391007</v>
+        <v>389507</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18190,10 +18258,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4242</v>
+        <v>4210</v>
       </c>
       <c r="D372" t="n">
-        <v>5803487</v>
+        <v>5764415</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18306,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5209</v>
+        <v>5169</v>
       </c>
       <c r="D373" t="n">
-        <v>7583193</v>
+        <v>7526429</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18354,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>18426</v>
+        <v>18305</v>
       </c>
       <c r="D374" t="n">
-        <v>27146935</v>
+        <v>26970724</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18402,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>8611</v>
+        <v>8576</v>
       </c>
       <c r="D375" t="n">
-        <v>12840327</v>
+        <v>12790076</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18450,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2417</v>
+        <v>2405</v>
       </c>
       <c r="D376" t="n">
-        <v>3614306</v>
+        <v>3596306</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18498,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D377" t="n">
-        <v>903095</v>
+        <v>897095</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18526,10 +18594,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5376</v>
+        <v>5322</v>
       </c>
       <c r="D379" t="n">
-        <v>7273521</v>
+        <v>7206869</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18642,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>4651</v>
+        <v>4612</v>
       </c>
       <c r="D380" t="n">
-        <v>6781844</v>
+        <v>6723432</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18690,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>13468</v>
+        <v>13389</v>
       </c>
       <c r="D381" t="n">
-        <v>19834638</v>
+        <v>19720368</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18738,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5567</v>
+        <v>5551</v>
       </c>
       <c r="D382" t="n">
-        <v>8293294</v>
+        <v>8269294</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18786,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D383" t="n">
-        <v>2369122</v>
+        <v>2363122</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18834,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D384" t="n">
-        <v>556606</v>
+        <v>555106</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18862,10 +18930,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4856</v>
+        <v>4810</v>
       </c>
       <c r="D386" t="n">
-        <v>6632929</v>
+        <v>6583424</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18978,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>3535</v>
+        <v>3510</v>
       </c>
       <c r="D387" t="n">
-        <v>5159938</v>
+        <v>5123603</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +19026,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>11199</v>
+        <v>11146</v>
       </c>
       <c r="D388" t="n">
-        <v>16525134</v>
+        <v>16447704</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19074,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4726</v>
+        <v>4708</v>
       </c>
       <c r="D389" t="n">
-        <v>7030808</v>
+        <v>7003808</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19122,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="D390" t="n">
-        <v>2021162</v>
+        <v>2014797</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19170,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D391" t="n">
-        <v>437100</v>
+        <v>435600</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19198,10 +19266,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3788</v>
+        <v>3761</v>
       </c>
       <c r="D393" t="n">
-        <v>5122239</v>
+        <v>5086763</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19314,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>4039</v>
+        <v>4010</v>
       </c>
       <c r="D394" t="n">
-        <v>5887905</v>
+        <v>5844485</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19362,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>10926</v>
+        <v>10885</v>
       </c>
       <c r="D395" t="n">
-        <v>16101362</v>
+        <v>16041516</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19410,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4213</v>
+        <v>4190</v>
       </c>
       <c r="D396" t="n">
-        <v>6268816</v>
+        <v>6235792</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19458,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D397" t="n">
-        <v>1978456</v>
+        <v>1972820</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19506,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D398" t="n">
-        <v>411010</v>
+        <v>406510</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19602,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4006</v>
+        <v>3984</v>
       </c>
       <c r="D400" t="n">
-        <v>5492688</v>
+        <v>5465876</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19650,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4415</v>
+        <v>4389</v>
       </c>
       <c r="D401" t="n">
-        <v>6398185</v>
+        <v>6362228</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19698,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>11158</v>
+        <v>11120</v>
       </c>
       <c r="D402" t="n">
-        <v>16398798</v>
+        <v>16342446</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19746,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3779</v>
+        <v>3772</v>
       </c>
       <c r="D403" t="n">
-        <v>5631915</v>
+        <v>5621415</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19794,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D404" t="n">
-        <v>1966489</v>
+        <v>1960489</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19918,10 +19986,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5151</v>
+        <v>5107</v>
       </c>
       <c r="D408" t="n">
-        <v>6933713</v>
+        <v>6878553</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +20034,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="D409" t="n">
-        <v>2161041</v>
+        <v>2149412</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20082,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>4917</v>
+        <v>4885</v>
       </c>
       <c r="D410" t="n">
-        <v>7243114</v>
+        <v>7195584</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20130,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="D411" t="n">
-        <v>2790999</v>
+        <v>2777499</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20178,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D412" t="n">
-        <v>988960</v>
+        <v>987460</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20302,10 +20370,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3338</v>
+        <v>3302</v>
       </c>
       <c r="D416" t="n">
-        <v>4432876</v>
+        <v>4383021</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20418,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D417" t="n">
-        <v>844464</v>
+        <v>842964</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20466,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D418" t="n">
-        <v>487130</v>
+        <v>479630</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20446,10 +20514,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D419" t="n">
-        <v>171000</v>
+        <v>169500</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20590,10 +20658,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3002</v>
+        <v>2996</v>
       </c>
       <c r="D422" t="n">
-        <v>4358086</v>
+        <v>4349086</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20706,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>7245</v>
+        <v>7226</v>
       </c>
       <c r="D423" t="n">
-        <v>10634268</v>
+        <v>10605768</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20754,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2394</v>
+        <v>2387</v>
       </c>
       <c r="D424" t="n">
-        <v>3568494</v>
+        <v>3557994</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20802,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D425" t="n">
-        <v>1040642</v>
+        <v>1037642</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20850,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D426" t="n">
-        <v>205890</v>
+        <v>204390</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20946,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2344</v>
+        <v>2337</v>
       </c>
       <c r="D428" t="n">
-        <v>3129502</v>
+        <v>3120594</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20994,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D429" t="n">
-        <v>2447612</v>
+        <v>2444612</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +21042,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4820</v>
+        <v>4809</v>
       </c>
       <c r="D430" t="n">
-        <v>7074925</v>
+        <v>7059174</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21090,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D431" t="n">
-        <v>2356342</v>
+        <v>2354842</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21214,10 +21282,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="D435" t="n">
-        <v>2177949</v>
+        <v>2168441</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21330,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="D436" t="n">
-        <v>2773044</v>
+        <v>2762544</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21310,10 +21378,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4776</v>
+        <v>4765</v>
       </c>
       <c r="D437" t="n">
-        <v>7015440</v>
+        <v>6999960</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21358,10 +21426,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D438" t="n">
-        <v>2250360</v>
+        <v>2244360</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21474,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D439" t="n">
-        <v>632663</v>
+        <v>625163</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21502,10 +21570,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="D441" t="n">
-        <v>2103902</v>
+        <v>2096784</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21618,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D442" t="n">
-        <v>1323390</v>
+        <v>1320390</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21666,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="D443" t="n">
-        <v>3841071</v>
+        <v>3835994</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21714,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D444" t="n">
-        <v>1134567</v>
+        <v>1133067</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21790,10 +21858,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D447" t="n">
-        <v>1416900</v>
+        <v>1412400</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21906,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2968</v>
+        <v>2958</v>
       </c>
       <c r="D448" t="n">
-        <v>4320758</v>
+        <v>4305758</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21954,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>9181</v>
+        <v>9161</v>
       </c>
       <c r="D449" t="n">
-        <v>13521642</v>
+        <v>13492990</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +22002,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3334</v>
+        <v>3328</v>
       </c>
       <c r="D450" t="n">
-        <v>4954494</v>
+        <v>4945894</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -21982,10 +22050,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D451" t="n">
-        <v>1359237</v>
+        <v>1354737</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22098,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D452" t="n">
-        <v>290810</v>
+        <v>287810</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22194,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2912</v>
+        <v>2898</v>
       </c>
       <c r="D454" t="n">
-        <v>3812107</v>
+        <v>3794411</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22242,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D455" t="n">
-        <v>1708759</v>
+        <v>1703579</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22290,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3192</v>
+        <v>3186</v>
       </c>
       <c r="D456" t="n">
-        <v>4669642</v>
+        <v>4660642</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22338,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D457" t="n">
-        <v>1543744</v>
+        <v>1539244</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22462,10 +22530,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D461" t="n">
-        <v>1688317</v>
+        <v>1685928</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22578,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>4314</v>
+        <v>4300</v>
       </c>
       <c r="D462" t="n">
-        <v>6247435</v>
+        <v>6228346</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22626,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>8089</v>
+        <v>8073</v>
       </c>
       <c r="D463" t="n">
-        <v>11867966</v>
+        <v>11845066</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22674,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="D464" t="n">
-        <v>3530989</v>
+        <v>3524989</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22654,10 +22722,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D465" t="n">
-        <v>901853</v>
+        <v>895853</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22750,10 +22818,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D467" t="n">
-        <v>10856</v>
+        <v>9356</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22866,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2709</v>
+        <v>2700</v>
       </c>
       <c r="D468" t="n">
-        <v>3619241</v>
+        <v>3610149</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22914,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D469" t="n">
-        <v>1482907</v>
+        <v>1478407</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22962,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="D470" t="n">
-        <v>3746737</v>
+        <v>3743055</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +23010,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D471" t="n">
-        <v>1132355</v>
+        <v>1130855</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23106,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D473" t="n">
-        <v>49500</v>
+        <v>48000</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23154,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="D474" t="n">
-        <v>1778327</v>
+        <v>1772327</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23202,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D475" t="n">
-        <v>515815</v>
+        <v>514315</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23250,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D476" t="n">
-        <v>1503706</v>
+        <v>1502206</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23278,10 +23346,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D478" t="n">
-        <v>89965</v>
+        <v>88465</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23442,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D480" t="n">
-        <v>753309</v>
+        <v>749217</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23490,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D481" t="n">
-        <v>1320599</v>
+        <v>1316755</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23538,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="D482" t="n">
-        <v>4151651</v>
+        <v>4147151</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23586,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D483" t="n">
-        <v>1425293</v>
+        <v>1423793</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23662,10 +23730,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D486" t="n">
-        <v>1354418</v>
+        <v>1350693</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23778,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2718</v>
+        <v>2708</v>
       </c>
       <c r="D487" t="n">
-        <v>3890870</v>
+        <v>3878405</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23826,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>5208</v>
+        <v>5201</v>
       </c>
       <c r="D488" t="n">
-        <v>7631148</v>
+        <v>7620648</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23874,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="D489" t="n">
-        <v>2203163</v>
+        <v>2200163</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23998,10 +24066,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>2336</v>
+        <v>2329</v>
       </c>
       <c r="D493" t="n">
-        <v>3065280</v>
+        <v>3055124</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24114,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>8593</v>
+        <v>8572</v>
       </c>
       <c r="D494" t="n">
-        <v>12456510</v>
+        <v>12425605</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24162,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>17942</v>
+        <v>17899</v>
       </c>
       <c r="D495" t="n">
-        <v>26273504</v>
+        <v>26215284</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24142,10 +24210,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>6117</v>
+        <v>6105</v>
       </c>
       <c r="D496" t="n">
-        <v>9103455</v>
+        <v>9085455</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24258,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="D497" t="n">
-        <v>2827772</v>
+        <v>2821772</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24306,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D498" t="n">
-        <v>572615</v>
+        <v>571115</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24430,10 +24498,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>6456</v>
+        <v>6437</v>
       </c>
       <c r="D502" t="n">
-        <v>8748076</v>
+        <v>8727463</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24546,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="D503" t="n">
-        <v>1810853</v>
+        <v>1800422</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24594,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3177</v>
+        <v>3171</v>
       </c>
       <c r="D504" t="n">
-        <v>4658866</v>
+        <v>4651711</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24690,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D506" t="n">
-        <v>509932</v>
+        <v>508432</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24766,10 +24834,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="D509" t="n">
-        <v>2026341</v>
+        <v>2020967</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24882,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2851</v>
+        <v>2835</v>
       </c>
       <c r="D510" t="n">
-        <v>4096033</v>
+        <v>4072639</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24930,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>4878</v>
+        <v>4872</v>
       </c>
       <c r="D511" t="n">
-        <v>7140145</v>
+        <v>7131145</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24978,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D512" t="n">
-        <v>2221682</v>
+        <v>2220182</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -24958,10 +25026,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D513" t="n">
-        <v>576873</v>
+        <v>569373</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25006,10 +25074,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D514" t="n">
-        <v>114099</v>
+        <v>112599</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25170,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="D516" t="n">
-        <v>2104203</v>
+        <v>2098175</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25218,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="D517" t="n">
-        <v>2271669</v>
+        <v>2262669</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25266,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3372</v>
+        <v>3367</v>
       </c>
       <c r="D518" t="n">
-        <v>4931812</v>
+        <v>4924312</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25314,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D519" t="n">
-        <v>1714535</v>
+        <v>1710035</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25390,10 +25458,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="D522" t="n">
-        <v>1951407</v>
+        <v>1945191</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25506,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3639</v>
+        <v>3625</v>
       </c>
       <c r="D523" t="n">
-        <v>5236999</v>
+        <v>5216615</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25554,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>9029</v>
+        <v>9006</v>
       </c>
       <c r="D524" t="n">
-        <v>13202158</v>
+        <v>13168269</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25602,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="D525" t="n">
-        <v>4508695</v>
+        <v>4502695</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25650,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D526" t="n">
-        <v>1247694</v>
+        <v>1244694</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25774,10 +25842,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3556</v>
+        <v>3548</v>
       </c>
       <c r="D530" t="n">
-        <v>4788850</v>
+        <v>4777308</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25890,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D531" t="n">
-        <v>1649577</v>
+        <v>1646014</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25938,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3361</v>
+        <v>3348</v>
       </c>
       <c r="D532" t="n">
-        <v>4899354</v>
+        <v>4882056</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25986,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D533" t="n">
-        <v>1655421</v>
+        <v>1652421</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26110,10 +26178,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D537" t="n">
-        <v>1635129</v>
+        <v>1630434</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26226,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D538" t="n">
-        <v>697783</v>
+        <v>696283</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26274,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D539" t="n">
-        <v>2524003</v>
+        <v>2522503</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26494,10 +26562,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2725</v>
+        <v>2714</v>
       </c>
       <c r="D545" t="n">
-        <v>3914567</v>
+        <v>3898067</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26610,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>4957</v>
+        <v>4940</v>
       </c>
       <c r="D546" t="n">
-        <v>7255879</v>
+        <v>7233801</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26658,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="D547" t="n">
-        <v>2244126</v>
+        <v>2237652</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26782,10 +26850,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="D551" t="n">
-        <v>2402164</v>
+        <v>2392366</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26898,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="D552" t="n">
-        <v>2458415</v>
+        <v>2455471</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26946,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3579</v>
+        <v>3566</v>
       </c>
       <c r="D553" t="n">
-        <v>5235879</v>
+        <v>5216548</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26994,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D554" t="n">
-        <v>1564841</v>
+        <v>1560939</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27118,10 +27186,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1928</v>
+        <v>1917</v>
       </c>
       <c r="D558" t="n">
-        <v>2558313</v>
+        <v>2548713</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27234,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4312</v>
+        <v>4303</v>
       </c>
       <c r="D559" t="n">
-        <v>6237595</v>
+        <v>6224095</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27282,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>10071</v>
+        <v>10041</v>
       </c>
       <c r="D560" t="n">
-        <v>14729217</v>
+        <v>14686158</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27330,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2822</v>
+        <v>2816</v>
       </c>
       <c r="D561" t="n">
-        <v>4186877</v>
+        <v>4177877</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27378,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D562" t="n">
-        <v>979476</v>
+        <v>977976</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27474,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3929</v>
+        <v>3919</v>
       </c>
       <c r="D564" t="n">
-        <v>5215309</v>
+        <v>5205287</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27522,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D565" t="n">
-        <v>1422866</v>
+        <v>1419866</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27570,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="D566" t="n">
-        <v>3250288</v>
+        <v>3244288</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27618,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D567" t="n">
-        <v>992195</v>
+        <v>990695</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27694,10 +27762,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D570" t="n">
-        <v>1571901</v>
+        <v>1568901</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27810,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>6071</v>
+        <v>6043</v>
       </c>
       <c r="D571" t="n">
-        <v>8779270</v>
+        <v>8739530</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27858,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>14626</v>
+        <v>14576</v>
       </c>
       <c r="D572" t="n">
-        <v>21450300</v>
+        <v>21379074</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27906,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>5148</v>
+        <v>5137</v>
       </c>
       <c r="D573" t="n">
-        <v>7651591</v>
+        <v>7635091</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27954,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D574" t="n">
-        <v>2341020</v>
+        <v>2338444</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -28078,10 +28146,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>5929</v>
+        <v>5908</v>
       </c>
       <c r="D578" t="n">
-        <v>7936317</v>
+        <v>7909260</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28194,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="D579" t="n">
-        <v>1979682</v>
+        <v>1967573</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28242,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3150</v>
+        <v>3132</v>
       </c>
       <c r="D580" t="n">
-        <v>4568032</v>
+        <v>4541532</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28290,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="D581" t="n">
-        <v>1548508</v>
+        <v>1538008</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28338,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D582" t="n">
-        <v>391422</v>
+        <v>386922</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28366,10 +28434,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="D584" t="n">
-        <v>2338408</v>
+        <v>2323708</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28482,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>8375</v>
+        <v>8346</v>
       </c>
       <c r="D585" t="n">
-        <v>12146512</v>
+        <v>12106105</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28530,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>17785</v>
+        <v>17744</v>
       </c>
       <c r="D586" t="n">
-        <v>26072764</v>
+        <v>26011574</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28578,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>5364</v>
+        <v>5351</v>
       </c>
       <c r="D587" t="n">
-        <v>7979644</v>
+        <v>7960144</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28626,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D588" t="n">
-        <v>2035236</v>
+        <v>2032236</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28702,10 +28770,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>5838</v>
+        <v>5819</v>
       </c>
       <c r="D591" t="n">
-        <v>7803492</v>
+        <v>7781235</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28818,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="D592" t="n">
-        <v>1822262</v>
+        <v>1816018</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28866,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2237</v>
+        <v>2232</v>
       </c>
       <c r="D593" t="n">
-        <v>3277815</v>
+        <v>3270315</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28914,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D594" t="n">
-        <v>948203</v>
+        <v>946703</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28942,10 +29010,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D596" t="n">
-        <v>24298</v>
+        <v>22798</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29038,10 +29106,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="D598" t="n">
-        <v>1559636</v>
+        <v>1554740</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29154,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D599" t="n">
-        <v>983415</v>
+        <v>981915</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29134,10 +29202,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D600" t="n">
-        <v>1505142</v>
+        <v>1501069</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29182,10 +29250,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D601" t="n">
-        <v>448981</v>
+        <v>447481</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29326,10 +29394,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D604" t="n">
-        <v>1001722</v>
+        <v>981086</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29442,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>3928</v>
+        <v>3909</v>
       </c>
       <c r="D605" t="n">
-        <v>5698166</v>
+        <v>5670514</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29490,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>6486</v>
+        <v>6471</v>
       </c>
       <c r="D606" t="n">
-        <v>9448936</v>
+        <v>9427338</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29538,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D607" t="n">
-        <v>2984588</v>
+        <v>2980088</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29586,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D608" t="n">
-        <v>815592</v>
+        <v>812592</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29662,10 +29730,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2548</v>
+        <v>2534</v>
       </c>
       <c r="D611" t="n">
-        <v>3392480</v>
+        <v>3373615</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29778,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="D612" t="n">
-        <v>2375645</v>
+        <v>2365145</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29826,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>4064</v>
+        <v>4051</v>
       </c>
       <c r="D613" t="n">
-        <v>5968662</v>
+        <v>5949162</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29874,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="D614" t="n">
-        <v>1809911</v>
+        <v>1799411</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29922,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D615" t="n">
-        <v>433818</v>
+        <v>432318</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29950,10 +30018,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="D617" t="n">
-        <v>2286259</v>
+        <v>2280884</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +30066,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="D618" t="n">
-        <v>1597014</v>
+        <v>1589514</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30114,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>2626</v>
+        <v>2621</v>
       </c>
       <c r="D619" t="n">
-        <v>3847475</v>
+        <v>3839975</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30162,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D620" t="n">
-        <v>1196034</v>
+        <v>1185534</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30190,10 +30258,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D622" t="n">
-        <v>57000</v>
+        <v>55500</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30286,10 +30354,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D624" t="n">
-        <v>1579197</v>
+        <v>1574697</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30402,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>5094</v>
+        <v>5070</v>
       </c>
       <c r="D625" t="n">
-        <v>7388584</v>
+        <v>7352584</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30450,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>12098</v>
+        <v>12073</v>
       </c>
       <c r="D626" t="n">
-        <v>17808887</v>
+        <v>17772738</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30430,10 +30498,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>4548</v>
+        <v>4541</v>
       </c>
       <c r="D627" t="n">
-        <v>6751186</v>
+        <v>6740686</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30478,10 +30546,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D628" t="n">
-        <v>1809357</v>
+        <v>1803357</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30594,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D629" t="n">
-        <v>316762</v>
+        <v>315262</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30622,10 +30690,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>4129</v>
+        <v>4121</v>
       </c>
       <c r="D631" t="n">
-        <v>5524562</v>
+        <v>5515788</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30738,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="D632" t="n">
-        <v>3209648</v>
+        <v>3206887</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30786,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>6798</v>
+        <v>6779</v>
       </c>
       <c r="D633" t="n">
-        <v>9997859</v>
+        <v>9969579</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30834,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="D634" t="n">
-        <v>3346550</v>
+        <v>3337550</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30882,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D635" t="n">
-        <v>911060</v>
+        <v>908060</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30930,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D636" t="n">
-        <v>151774</v>
+        <v>148774</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31006,10 +31074,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="D639" t="n">
-        <v>2996730</v>
+        <v>2992853</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31122,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D640" t="n">
-        <v>1314513</v>
+        <v>1311513</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31170,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="D641" t="n">
-        <v>3549038</v>
+        <v>3540038</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31342,10 +31410,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D646" t="n">
-        <v>1088627</v>
+        <v>1084127</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31458,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="D647" t="n">
-        <v>2173028</v>
+        <v>2167031</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31506,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>4050</v>
+        <v>4039</v>
       </c>
       <c r="D648" t="n">
-        <v>5956449</v>
+        <v>5939949</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31554,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D649" t="n">
-        <v>2019344</v>
+        <v>2016344</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31602,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D650" t="n">
-        <v>509163</v>
+        <v>506163</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31678,10 +31746,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="D653" t="n">
-        <v>1758107</v>
+        <v>1752404</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31794,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>3168</v>
+        <v>3162</v>
       </c>
       <c r="D654" t="n">
-        <v>4602243</v>
+        <v>4593803</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31842,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>6293</v>
+        <v>6282</v>
       </c>
       <c r="D655" t="n">
-        <v>9216147</v>
+        <v>9199647</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31890,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>2317</v>
+        <v>2310</v>
       </c>
       <c r="D656" t="n">
-        <v>3449689</v>
+        <v>3439189</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31870,10 +31938,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D657" t="n">
-        <v>774039</v>
+        <v>772539</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -32062,10 +32130,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>2028</v>
+        <v>2017</v>
       </c>
       <c r="D661" t="n">
-        <v>2711275</v>
+        <v>2699567</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32178,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="D662" t="n">
-        <v>2187390</v>
+        <v>2173140</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32226,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>2792</v>
+        <v>2782</v>
       </c>
       <c r="D663" t="n">
-        <v>4072880</v>
+        <v>4061153</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32398,10 +32466,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D668" t="n">
-        <v>1579681</v>
+        <v>1573191</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32514,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>8377</v>
+        <v>8336</v>
       </c>
       <c r="D669" t="n">
-        <v>12135887</v>
+        <v>12078435</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32562,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>20057</v>
+        <v>19989</v>
       </c>
       <c r="D670" t="n">
-        <v>29439911</v>
+        <v>29343471</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32610,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>6001</v>
+        <v>5987</v>
       </c>
       <c r="D671" t="n">
-        <v>8928055</v>
+        <v>8907055</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32658,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="D672" t="n">
-        <v>2574374</v>
+        <v>2563874</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32734,10 +32802,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>7276</v>
+        <v>7244</v>
       </c>
       <c r="D675" t="n">
-        <v>9905239</v>
+        <v>9864530</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32850,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>10262</v>
+        <v>10224</v>
       </c>
       <c r="D676" t="n">
-        <v>14905189</v>
+        <v>14851834</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32898,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>27563</v>
+        <v>27480</v>
       </c>
       <c r="D677" t="n">
-        <v>40488958</v>
+        <v>40365853</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32946,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>8701</v>
+        <v>8683</v>
       </c>
       <c r="D678" t="n">
-        <v>12961237</v>
+        <v>12934237</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32926,10 +32994,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="D679" t="n">
-        <v>3487779</v>
+        <v>3478779</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -33118,10 +33186,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>9188</v>
+        <v>9164</v>
       </c>
       <c r="D683" t="n">
-        <v>12429478</v>
+        <v>12404733</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33234,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D684" t="n">
-        <v>1812439</v>
+        <v>1809439</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33282,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="D685" t="n">
-        <v>3870503</v>
+        <v>3855503</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33330,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D686" t="n">
-        <v>1484038</v>
+        <v>1481038</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33426,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D688" t="n">
-        <v>134714</v>
+        <v>131121</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33454,10 +33522,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="D690" t="n">
-        <v>2729374</v>
+        <v>2719576</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33570,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>8828</v>
+        <v>8797</v>
       </c>
       <c r="D691" t="n">
-        <v>12658104</v>
+        <v>12612410</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33618,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>16649</v>
+        <v>16613</v>
       </c>
       <c r="D692" t="n">
-        <v>24294449</v>
+        <v>24243777</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33666,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>4627</v>
+        <v>4617</v>
       </c>
       <c r="D693" t="n">
-        <v>6873975</v>
+        <v>6858975</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33646,10 +33714,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D694" t="n">
-        <v>1650376</v>
+        <v>1648876</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33838,10 +33906,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>5571</v>
+        <v>5552</v>
       </c>
       <c r="D698" t="n">
-        <v>7530661</v>
+        <v>7508983</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33954,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3700</v>
+        <v>3688</v>
       </c>
       <c r="D699" t="n">
-        <v>5343126</v>
+        <v>5326625</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +34002,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>9337</v>
+        <v>9316</v>
       </c>
       <c r="D700" t="n">
-        <v>13686189</v>
+        <v>13656584</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -33982,10 +34050,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>2571</v>
+        <v>2565</v>
       </c>
       <c r="D701" t="n">
-        <v>3818503</v>
+        <v>3810283</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34030,10 +34098,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D702" t="n">
-        <v>844251</v>
+        <v>839751</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34174,10 +34242,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3111</v>
+        <v>3105</v>
       </c>
       <c r="D705" t="n">
-        <v>4108779</v>
+        <v>4100603</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
